--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Alcam-Chl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Alcam-Chl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Alcam</t>
+  </si>
+  <si>
+    <t>Chl1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Alcam</t>
-  </si>
-  <si>
-    <t>Chl1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.5683613333333334</v>
+      </c>
+      <c r="H2">
+        <v>1.705084</v>
+      </c>
+      <c r="I2">
+        <v>0.4361027177196302</v>
+      </c>
+      <c r="J2">
+        <v>0.4361027177196302</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>62.12557999999999</v>
-      </c>
-      <c r="H2">
-        <v>186.37674</v>
-      </c>
-      <c r="I2">
-        <v>0.9736910227596813</v>
-      </c>
-      <c r="J2">
-        <v>0.9736910227596813</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.041336</v>
+        <v>0.005250333333333333</v>
       </c>
       <c r="N2">
-        <v>0.124008</v>
+        <v>0.015751</v>
       </c>
       <c r="O2">
-        <v>0.01439314688988224</v>
+        <v>0.001037378148736751</v>
       </c>
       <c r="P2">
-        <v>0.01439314688988224</v>
+        <v>0.001037378148736751</v>
       </c>
       <c r="Q2">
-        <v>2.56802297488</v>
+        <v>0.002984086453777778</v>
       </c>
       <c r="R2">
-        <v>23.11220677392</v>
+        <v>0.026856778084</v>
       </c>
       <c r="S2">
-        <v>0.01401447791593976</v>
+        <v>0.000452403429967056</v>
       </c>
       <c r="T2">
-        <v>0.01401447791593976</v>
+        <v>0.000452403429967056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>62.12557999999999</v>
+        <v>0.5683613333333334</v>
       </c>
       <c r="H3">
-        <v>186.37674</v>
+        <v>1.705084</v>
       </c>
       <c r="I3">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="J3">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.400334</v>
       </c>
       <c r="O3">
-        <v>0.1625315540682565</v>
+        <v>0.0922275342856409</v>
       </c>
       <c r="P3">
-        <v>0.1625315540682565</v>
+        <v>0.0922275342856409</v>
       </c>
       <c r="Q3">
-        <v>28.99885398123999</v>
+        <v>0.2652985664506667</v>
       </c>
       <c r="R3">
-        <v>260.98968583116</v>
+        <v>2.387687098056</v>
       </c>
       <c r="S3">
-        <v>0.1582555151114411</v>
+        <v>0.04022067835054837</v>
       </c>
       <c r="T3">
-        <v>0.1582555151114411</v>
+        <v>0.04022067835054837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>62.12557999999999</v>
+        <v>0.5683613333333334</v>
       </c>
       <c r="H4">
-        <v>186.37674</v>
+        <v>1.705084</v>
       </c>
       <c r="I4">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="J4">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.363808333333333</v>
+        <v>4.589128333333333</v>
       </c>
       <c r="N4">
-        <v>7.091424999999999</v>
+        <v>13.767385</v>
       </c>
       <c r="O4">
-        <v>0.8230752990418613</v>
+        <v>0.9067350875656224</v>
       </c>
       <c r="P4">
-        <v>0.8230752990418614</v>
+        <v>0.9067350875656223</v>
       </c>
       <c r="Q4">
-        <v>146.8529637171666</v>
+        <v>2.608283098371111</v>
       </c>
       <c r="R4">
-        <v>1321.6766734545</v>
+        <v>23.47454788534</v>
       </c>
       <c r="S4">
-        <v>0.8014210297323004</v>
+        <v>0.3954296359391148</v>
       </c>
       <c r="T4">
-        <v>0.8014210297323006</v>
+        <v>0.3954296359391147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5683613333333334</v>
+        <v>0.7349126666666667</v>
       </c>
       <c r="H5">
-        <v>1.705084</v>
+        <v>2.204738</v>
       </c>
       <c r="I5">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="J5">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.041336</v>
+        <v>0.005250333333333333</v>
       </c>
       <c r="N5">
-        <v>0.124008</v>
+        <v>0.015751</v>
       </c>
       <c r="O5">
-        <v>0.01439314688988224</v>
+        <v>0.001037378148736751</v>
       </c>
       <c r="P5">
-        <v>0.01439314688988224</v>
+        <v>0.001037378148736751</v>
       </c>
       <c r="Q5">
-        <v>0.02349378407466667</v>
+        <v>0.003858536470888889</v>
       </c>
       <c r="R5">
-        <v>0.211444056672</v>
+        <v>0.034726828238</v>
       </c>
       <c r="S5">
-        <v>0.0001282126839584287</v>
+        <v>0.0005849747187696952</v>
       </c>
       <c r="T5">
-        <v>0.0001282126839584287</v>
+        <v>0.0005849747187696952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5683613333333334</v>
+        <v>0.7349126666666667</v>
       </c>
       <c r="H6">
-        <v>1.705084</v>
+        <v>2.204738</v>
       </c>
       <c r="I6">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="J6">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.400334</v>
       </c>
       <c r="O6">
-        <v>0.1625315540682565</v>
+        <v>0.0922275342856409</v>
       </c>
       <c r="P6">
-        <v>0.1625315540682565</v>
+        <v>0.0922275342856409</v>
       </c>
       <c r="Q6">
-        <v>0.2652985664506667</v>
+        <v>0.3430410647213333</v>
       </c>
       <c r="R6">
-        <v>2.387687098056</v>
+        <v>3.087369582492</v>
       </c>
       <c r="S6">
-        <v>0.001447814500501922</v>
+        <v>0.05200685593509252</v>
       </c>
       <c r="T6">
-        <v>0.001447814500501922</v>
+        <v>0.05200685593509252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5683613333333334</v>
+        <v>0.7349126666666667</v>
       </c>
       <c r="H7">
-        <v>1.705084</v>
+        <v>2.204738</v>
       </c>
       <c r="I7">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="J7">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.363808333333333</v>
+        <v>4.589128333333333</v>
       </c>
       <c r="N7">
-        <v>7.091424999999999</v>
+        <v>13.767385</v>
       </c>
       <c r="O7">
-        <v>0.8230752990418613</v>
+        <v>0.9067350875656224</v>
       </c>
       <c r="P7">
-        <v>0.8230752990418614</v>
+        <v>0.9067350875656223</v>
       </c>
       <c r="Q7">
-        <v>1.343497256077778</v>
+        <v>3.372608541125555</v>
       </c>
       <c r="R7">
-        <v>12.0914753047</v>
+        <v>30.35347687013</v>
       </c>
       <c r="S7">
-        <v>0.007331870785271113</v>
+        <v>0.5113054516265075</v>
       </c>
       <c r="T7">
-        <v>0.007331870785271114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.110262</v>
-      </c>
-      <c r="H8">
-        <v>3.330786</v>
-      </c>
-      <c r="I8">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="J8">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.041336</v>
-      </c>
-      <c r="N8">
-        <v>0.124008</v>
-      </c>
-      <c r="O8">
-        <v>0.01439314688988224</v>
-      </c>
-      <c r="P8">
-        <v>0.01439314688988224</v>
-      </c>
-      <c r="Q8">
-        <v>0.04589379003200001</v>
-      </c>
-      <c r="R8">
-        <v>0.413044110288</v>
-      </c>
-      <c r="S8">
-        <v>0.0002504562899840471</v>
-      </c>
-      <c r="T8">
-        <v>0.0002504562899840471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.110262</v>
-      </c>
-      <c r="H9">
-        <v>3.330786</v>
-      </c>
-      <c r="I9">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="J9">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.466778</v>
-      </c>
-      <c r="N9">
-        <v>1.400334</v>
-      </c>
-      <c r="O9">
-        <v>0.1625315540682565</v>
-      </c>
-      <c r="P9">
-        <v>0.1625315540682565</v>
-      </c>
-      <c r="Q9">
-        <v>0.518245875836</v>
-      </c>
-      <c r="R9">
-        <v>4.664212882524001</v>
-      </c>
-      <c r="S9">
-        <v>0.002828224456313468</v>
-      </c>
-      <c r="T9">
-        <v>0.002828224456313468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.110262</v>
-      </c>
-      <c r="H10">
-        <v>3.330786</v>
-      </c>
-      <c r="I10">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="J10">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.363808333333333</v>
-      </c>
-      <c r="N10">
-        <v>7.091424999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.8230752990418613</v>
-      </c>
-      <c r="P10">
-        <v>0.8230752990418614</v>
-      </c>
-      <c r="Q10">
-        <v>2.624446567783333</v>
-      </c>
-      <c r="R10">
-        <v>23.62001911005</v>
-      </c>
-      <c r="S10">
-        <v>0.01432239852428973</v>
-      </c>
-      <c r="T10">
-        <v>0.01432239852428973</v>
+        <v>0.5113054516265074</v>
       </c>
     </row>
   </sheetData>
